--- a/Marble/Assets/Data/MapData.xlsx
+++ b/Marble/Assets/Data/MapData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Go\Repository\atents220128_2\Marble\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5858E58F-0BD8-485F-9274-9D9CED800272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4593879-C27B-4B1F-A2AC-35E00FA6BBB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37380" yWindow="870" windowWidth="19335" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33000" yWindow="1605" windowWidth="20055" windowHeight="14550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -531,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -977,10 +977,10 @@
         <v>24</v>
       </c>
       <c r="D17">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="E17">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -1324,10 +1324,10 @@
         <v>35</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="E30">
-        <v>25</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
@@ -1422,10 +1422,10 @@
         <v>39</v>
       </c>
       <c r="D34">
-        <v>45</v>
+        <v>450</v>
       </c>
       <c r="E34">
-        <v>40</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
